--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ctf1</t>
+  </si>
+  <si>
+    <t>Lifr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ctf1</t>
-  </si>
-  <si>
-    <t>Lifr</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9581143333333334</v>
+        <v>0.7996153333333332</v>
       </c>
       <c r="H2">
-        <v>2.874343</v>
+        <v>2.398846</v>
       </c>
       <c r="I2">
-        <v>0.3094343388498081</v>
+        <v>0.373961854065697</v>
       </c>
       <c r="J2">
-        <v>0.3094343388498081</v>
+        <v>0.3739618540656971</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.96835266666667</v>
+        <v>34.53319033333333</v>
       </c>
       <c r="N2">
-        <v>44.905058</v>
+        <v>103.599571</v>
       </c>
       <c r="O2">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="P2">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="Q2">
-        <v>14.34139323632156</v>
+        <v>27.61326849945177</v>
       </c>
       <c r="R2">
-        <v>129.072539126894</v>
+        <v>248.519416495066</v>
       </c>
       <c r="S2">
-        <v>0.03837151695677657</v>
+        <v>0.09206458141416213</v>
       </c>
       <c r="T2">
-        <v>0.03837151695677657</v>
+        <v>0.09206458141416213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9581143333333334</v>
+        <v>0.7996153333333332</v>
       </c>
       <c r="H3">
-        <v>2.874343</v>
+        <v>2.398846</v>
       </c>
       <c r="I3">
-        <v>0.3094343388498081</v>
+        <v>0.373961854065697</v>
       </c>
       <c r="J3">
-        <v>0.3094343388498081</v>
+        <v>0.3739618540656971</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>242.324234</v>
       </c>
       <c r="O3">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="P3">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="Q3">
-        <v>77.39144063647356</v>
+        <v>64.58872438155154</v>
       </c>
       <c r="R3">
-        <v>696.522965728262</v>
+        <v>581.298519433964</v>
       </c>
       <c r="S3">
-        <v>0.2070668398639836</v>
+        <v>0.2153433547491956</v>
       </c>
       <c r="T3">
-        <v>0.2070668398639836</v>
+        <v>0.2153433547491956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9581143333333334</v>
+        <v>0.7996153333333332</v>
       </c>
       <c r="H4">
-        <v>2.874343</v>
+        <v>2.398846</v>
       </c>
       <c r="I4">
-        <v>0.3094343388498081</v>
+        <v>0.373961854065697</v>
       </c>
       <c r="J4">
-        <v>0.3094343388498081</v>
+        <v>0.3739618540656971</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>74.892616</v>
       </c>
       <c r="O4">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="P4">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823364</v>
       </c>
       <c r="Q4">
-        <v>23.91856295014312</v>
+        <v>19.96176136901511</v>
       </c>
       <c r="R4">
-        <v>215.267066551288</v>
+        <v>179.655852321136</v>
       </c>
       <c r="S4">
-        <v>0.06399598202904797</v>
+        <v>0.0665539179023394</v>
       </c>
       <c r="T4">
-        <v>0.06399598202904798</v>
+        <v>0.0665539179023394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7996153333333332</v>
+        <v>1.338611666666667</v>
       </c>
       <c r="H5">
-        <v>2.398846</v>
+        <v>4.015835</v>
       </c>
       <c r="I5">
-        <v>0.2582452149978297</v>
+        <v>0.6260381459343028</v>
       </c>
       <c r="J5">
-        <v>0.2582452149978297</v>
+        <v>0.626038145934303</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.96835266666667</v>
+        <v>34.53319033333333</v>
       </c>
       <c r="N5">
-        <v>44.905058</v>
+        <v>103.599571</v>
       </c>
       <c r="O5">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="P5">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="Q5">
-        <v>11.96892430700755</v>
+        <v>46.22653146742056</v>
       </c>
       <c r="R5">
-        <v>107.720318763068</v>
+        <v>416.038783206785</v>
       </c>
       <c r="S5">
-        <v>0.03202379116399666</v>
+        <v>0.1541225107002875</v>
       </c>
       <c r="T5">
-        <v>0.03202379116399666</v>
+        <v>0.1541225107002875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7996153333333332</v>
+        <v>1.338611666666667</v>
       </c>
       <c r="H6">
-        <v>2.398846</v>
+        <v>4.015835</v>
       </c>
       <c r="I6">
-        <v>0.2582452149978297</v>
+        <v>0.6260381459343028</v>
       </c>
       <c r="J6">
-        <v>0.2582452149978297</v>
+        <v>0.626038145934303</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>242.324234</v>
       </c>
       <c r="O6">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="P6">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="Q6">
-        <v>64.58872438155154</v>
+        <v>108.1260155828211</v>
       </c>
       <c r="R6">
-        <v>581.298519433964</v>
+        <v>973.13414024539</v>
       </c>
       <c r="S6">
-        <v>0.1728121732654584</v>
+        <v>0.3604997490540184</v>
       </c>
       <c r="T6">
-        <v>0.1728121732654584</v>
+        <v>0.3604997490540184</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7996153333333332</v>
+        <v>1.338611666666667</v>
       </c>
       <c r="H7">
-        <v>2.398846</v>
+        <v>4.015835</v>
       </c>
       <c r="I7">
-        <v>0.2582452149978297</v>
+        <v>0.6260381459343028</v>
       </c>
       <c r="J7">
-        <v>0.2582452149978297</v>
+        <v>0.626038145934303</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>74.892616</v>
       </c>
       <c r="O7">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="P7">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823364</v>
       </c>
       <c r="Q7">
-        <v>19.96176136901511</v>
+        <v>33.41737650826223</v>
       </c>
       <c r="R7">
-        <v>179.655852321136</v>
+        <v>300.75638857436</v>
       </c>
       <c r="S7">
-        <v>0.05340925056837461</v>
+        <v>0.111415886179997</v>
       </c>
       <c r="T7">
-        <v>0.05340925056837462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.338611666666667</v>
-      </c>
-      <c r="H8">
-        <v>4.015835000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.4323204461523623</v>
-      </c>
-      <c r="J8">
-        <v>0.4323204461523622</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>14.96835266666667</v>
-      </c>
-      <c r="N8">
-        <v>44.905058</v>
-      </c>
-      <c r="O8">
-        <v>0.1240053612000741</v>
-      </c>
-      <c r="P8">
-        <v>0.1240053612000741</v>
-      </c>
-      <c r="Q8">
-        <v>20.03681151038111</v>
-      </c>
-      <c r="R8">
-        <v>180.33130359343</v>
-      </c>
-      <c r="S8">
-        <v>0.05361005307930086</v>
-      </c>
-      <c r="T8">
-        <v>0.05361005307930086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.338611666666667</v>
-      </c>
-      <c r="H9">
-        <v>4.015835000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.4323204461523623</v>
-      </c>
-      <c r="J9">
-        <v>0.4323204461523622</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>80.77474466666666</v>
-      </c>
-      <c r="N9">
-        <v>242.324234</v>
-      </c>
-      <c r="O9">
-        <v>0.6691786071115035</v>
-      </c>
-      <c r="P9">
-        <v>0.6691786071115035</v>
-      </c>
-      <c r="Q9">
-        <v>108.1260155828211</v>
-      </c>
-      <c r="R9">
-        <v>973.1341402453902</v>
-      </c>
-      <c r="S9">
-        <v>0.2892995939820615</v>
-      </c>
-      <c r="T9">
-        <v>0.2892995939820615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.338611666666667</v>
-      </c>
-      <c r="H10">
-        <v>4.015835000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.4323204461523623</v>
-      </c>
-      <c r="J10">
-        <v>0.4323204461523622</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>24.96420533333334</v>
-      </c>
-      <c r="N10">
-        <v>74.892616</v>
-      </c>
-      <c r="O10">
-        <v>0.2068160316884225</v>
-      </c>
-      <c r="P10">
-        <v>0.2068160316884225</v>
-      </c>
-      <c r="Q10">
-        <v>33.41737650826224</v>
-      </c>
-      <c r="R10">
-        <v>300.7563885743601</v>
-      </c>
-      <c r="S10">
-        <v>0.08941079909099989</v>
-      </c>
-      <c r="T10">
-        <v>0.08941079909099989</v>
+        <v>0.111415886179997</v>
       </c>
     </row>
   </sheetData>
